--- a/database/industries/dode/shesadaf/product/monthly_seprated.xlsx
+++ b/database/industries/dode/shesadaf/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shesadaf\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054EFE43-F0CD-4EF8-ADAE-078F945B394A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1364E410-622B-4AA0-8F33-514150C1652F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1483,95 +1483,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>3402</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>3539</v>
       </c>
       <c r="AA11" s="11">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="AB11" s="11">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AC11" s="11">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AD11" s="11">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AE11" s="11">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AF11" s="11">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AG11" s="11">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AH11" s="11">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AI11" s="11">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AK11" s="11">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AL11" s="11">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AM11" s="11">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AN11" s="11">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AO11" s="11">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AP11" s="11">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AR11" s="11">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AS11" s="11">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AT11" s="11">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AU11" s="11">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AV11" s="11">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AW11" s="11">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AX11" s="11">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AY11" s="11">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AZ11" s="11">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="BA11" s="11">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="BB11" s="11">
-        <v>4910</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1641,94 +1641,94 @@
         <v>0</v>
       </c>
       <c r="Y12" s="13">
-        <v>0</v>
+        <v>3402</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>3539</v>
       </c>
       <c r="AA12" s="13">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="AB12" s="13">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AC12" s="13">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AD12" s="13">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AE12" s="13">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AF12" s="13">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AG12" s="13">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AH12" s="13">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AI12" s="13">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AK12" s="13">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AL12" s="13">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AM12" s="13">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AN12" s="13">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AO12" s="13">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AP12" s="13">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AQ12" s="13">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AR12" s="13">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AS12" s="13">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AT12" s="13">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AU12" s="13">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AV12" s="13">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AW12" s="13">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AX12" s="13">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AY12" s="13">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="BA12" s="13">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="BB12" s="13">
-        <v>4910</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1856,11 +1856,11 @@
       <c r="X14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>58</v>
+      <c r="Y14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
       </c>
       <c r="AA14" s="11">
         <v>0</v>
@@ -1886,11 +1886,11 @@
       <c r="AH14" s="11">
         <v>0</v>
       </c>
-      <c r="AI14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="11">
-        <v>0</v>
+      <c r="AI14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK14" s="11" t="s">
         <v>58</v>
@@ -1910,11 +1910,11 @@
       <c r="AP14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>58</v>
+      <c r="AQ14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="11">
+        <v>0</v>
       </c>
       <c r="AS14" s="11">
         <v>0</v>
@@ -1931,8 +1931,8 @@
       <c r="AW14" s="11">
         <v>0</v>
       </c>
-      <c r="AX14" s="11" t="s">
-        <v>58</v>
+      <c r="AX14" s="11">
+        <v>0</v>
       </c>
       <c r="AY14" s="11">
         <v>0</v>
@@ -2227,11 +2227,11 @@
       <c r="X17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="17" t="s">
-        <v>58</v>
+      <c r="Y17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="17">
+        <v>0</v>
       </c>
       <c r="AA17" s="17">
         <v>0</v>
@@ -2385,94 +2385,94 @@
         <v>0</v>
       </c>
       <c r="Y18" s="13">
-        <v>0</v>
+        <v>3402</v>
       </c>
       <c r="Z18" s="13">
-        <v>0</v>
+        <v>3539</v>
       </c>
       <c r="AA18" s="13">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="AB18" s="13">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AC18" s="13">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AD18" s="13">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AE18" s="13">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AF18" s="13">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AG18" s="13">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AH18" s="13">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AI18" s="13">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AJ18" s="13">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AK18" s="13">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AL18" s="13">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AM18" s="13">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AN18" s="13">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AO18" s="13">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AP18" s="13">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AQ18" s="13">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AR18" s="13">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AS18" s="13">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AT18" s="13">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AU18" s="13">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AV18" s="13">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AW18" s="13">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AX18" s="13">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AY18" s="13">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AZ18" s="13">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="BA18" s="13">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="BB18" s="13">
-        <v>4910</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2977,95 +2977,95 @@
       <c r="X25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>58</v>
+      <c r="Y25" s="11">
+        <v>1054</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>1612</v>
       </c>
       <c r="AA25" s="11">
-        <v>1054</v>
+        <v>1271</v>
       </c>
       <c r="AB25" s="11">
-        <v>1612</v>
+        <v>1324</v>
       </c>
       <c r="AC25" s="11">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="AD25" s="11">
-        <v>1324</v>
+        <v>1567</v>
       </c>
       <c r="AE25" s="11">
-        <v>1283</v>
+        <v>1578</v>
       </c>
       <c r="AF25" s="11">
-        <v>1567</v>
+        <v>1359</v>
       </c>
       <c r="AG25" s="11">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="AH25" s="11">
-        <v>1359</v>
+        <v>1563</v>
       </c>
       <c r="AI25" s="11">
-        <v>1563</v>
+        <v>1319</v>
       </c>
       <c r="AJ25" s="11">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="AK25" s="11">
-        <v>1319</v>
+        <v>1481</v>
       </c>
       <c r="AL25" s="11">
-        <v>1551</v>
+        <v>2112</v>
       </c>
       <c r="AM25" s="11">
-        <v>1481</v>
+        <v>1650</v>
       </c>
       <c r="AN25" s="11">
-        <v>2112</v>
+        <v>2360</v>
       </c>
       <c r="AO25" s="11">
-        <v>1650</v>
+        <v>1477</v>
       </c>
       <c r="AP25" s="11">
-        <v>2360</v>
+        <v>1907</v>
       </c>
       <c r="AQ25" s="11">
-        <v>1477</v>
+        <v>1382</v>
       </c>
       <c r="AR25" s="11">
-        <v>1907</v>
+        <v>1498</v>
       </c>
       <c r="AS25" s="11">
-        <v>1382</v>
+        <v>1399</v>
       </c>
       <c r="AT25" s="11">
-        <v>1498</v>
+        <v>612</v>
       </c>
       <c r="AU25" s="11">
-        <v>1399</v>
+        <v>3218</v>
       </c>
       <c r="AV25" s="11">
-        <v>612</v>
+        <v>3283</v>
       </c>
       <c r="AW25" s="11">
-        <v>3218</v>
+        <v>2273</v>
       </c>
       <c r="AX25" s="11">
-        <v>3283</v>
+        <v>3309</v>
       </c>
       <c r="AY25" s="11">
-        <v>2273</v>
+        <v>1631</v>
       </c>
       <c r="AZ25" s="11">
-        <v>3309</v>
+        <v>1455</v>
       </c>
       <c r="BA25" s="11">
-        <v>1632</v>
+        <v>1835</v>
       </c>
       <c r="BB25" s="11">
-        <v>1454</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3135,94 +3135,94 @@
         <v>0</v>
       </c>
       <c r="Y26" s="13">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="Z26" s="13">
-        <v>0</v>
+        <v>1612</v>
       </c>
       <c r="AA26" s="13">
-        <v>1054</v>
+        <v>1271</v>
       </c>
       <c r="AB26" s="13">
-        <v>1612</v>
+        <v>1324</v>
       </c>
       <c r="AC26" s="13">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="AD26" s="13">
-        <v>1324</v>
+        <v>1567</v>
       </c>
       <c r="AE26" s="13">
-        <v>1283</v>
+        <v>1578</v>
       </c>
       <c r="AF26" s="13">
-        <v>1567</v>
+        <v>1359</v>
       </c>
       <c r="AG26" s="13">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="AH26" s="13">
-        <v>1359</v>
+        <v>1563</v>
       </c>
       <c r="AI26" s="13">
-        <v>1563</v>
+        <v>1319</v>
       </c>
       <c r="AJ26" s="13">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="AK26" s="13">
-        <v>1319</v>
+        <v>1481</v>
       </c>
       <c r="AL26" s="13">
-        <v>1551</v>
+        <v>2112</v>
       </c>
       <c r="AM26" s="13">
-        <v>1481</v>
+        <v>1650</v>
       </c>
       <c r="AN26" s="13">
-        <v>2112</v>
+        <v>2360</v>
       </c>
       <c r="AO26" s="13">
-        <v>1650</v>
+        <v>1477</v>
       </c>
       <c r="AP26" s="13">
-        <v>2360</v>
+        <v>1907</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1477</v>
+        <v>1382</v>
       </c>
       <c r="AR26" s="13">
-        <v>1907</v>
+        <v>1498</v>
       </c>
       <c r="AS26" s="13">
-        <v>1382</v>
+        <v>1399</v>
       </c>
       <c r="AT26" s="13">
-        <v>1498</v>
+        <v>612</v>
       </c>
       <c r="AU26" s="13">
-        <v>1399</v>
+        <v>3218</v>
       </c>
       <c r="AV26" s="13">
-        <v>612</v>
+        <v>3283</v>
       </c>
       <c r="AW26" s="13">
-        <v>3218</v>
+        <v>2273</v>
       </c>
       <c r="AX26" s="13">
-        <v>3283</v>
+        <v>3309</v>
       </c>
       <c r="AY26" s="13">
-        <v>2273</v>
+        <v>1631</v>
       </c>
       <c r="AZ26" s="13">
-        <v>3309</v>
+        <v>1455</v>
       </c>
       <c r="BA26" s="13">
-        <v>1632</v>
+        <v>1835</v>
       </c>
       <c r="BB26" s="13">
-        <v>1454</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3350,95 +3350,95 @@
       <c r="X28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>58</v>
+      <c r="Y28" s="11">
+        <v>3011</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>2606</v>
       </c>
       <c r="AA28" s="11">
-        <v>3011</v>
+        <v>3037</v>
       </c>
       <c r="AB28" s="11">
-        <v>2606</v>
+        <v>1918</v>
       </c>
       <c r="AC28" s="11">
-        <v>3037</v>
+        <v>2460</v>
       </c>
       <c r="AD28" s="11">
-        <v>1918</v>
+        <v>2031</v>
       </c>
       <c r="AE28" s="11">
-        <v>2460</v>
+        <v>2214</v>
       </c>
       <c r="AF28" s="11">
-        <v>2031</v>
+        <v>2261</v>
       </c>
       <c r="AG28" s="11">
-        <v>2214</v>
+        <v>1565</v>
       </c>
       <c r="AH28" s="11">
-        <v>2261</v>
+        <v>2249</v>
       </c>
       <c r="AI28" s="11">
-        <v>1565</v>
+        <v>1773</v>
       </c>
       <c r="AJ28" s="11">
-        <v>2249</v>
+        <v>1139</v>
       </c>
       <c r="AK28" s="11">
-        <v>1773</v>
+        <v>1727</v>
       </c>
       <c r="AL28" s="11">
-        <v>1139</v>
+        <v>1196</v>
       </c>
       <c r="AM28" s="11">
-        <v>1727</v>
+        <v>2181</v>
       </c>
       <c r="AN28" s="11">
-        <v>1196</v>
+        <v>840</v>
       </c>
       <c r="AO28" s="11">
-        <v>2181</v>
+        <v>2453</v>
       </c>
       <c r="AP28" s="11">
-        <v>840</v>
+        <v>2322</v>
       </c>
       <c r="AQ28" s="11">
-        <v>2453</v>
+        <v>2227</v>
       </c>
       <c r="AR28" s="11">
-        <v>2322</v>
+        <v>3131</v>
       </c>
       <c r="AS28" s="11">
-        <v>2227</v>
+        <v>2197</v>
       </c>
       <c r="AT28" s="11">
-        <v>3131</v>
+        <v>2509</v>
       </c>
       <c r="AU28" s="11">
-        <v>2197</v>
+        <v>3788</v>
       </c>
       <c r="AV28" s="11">
-        <v>2509</v>
+        <v>2975</v>
       </c>
       <c r="AW28" s="11">
-        <v>3788</v>
+        <v>2447</v>
       </c>
       <c r="AX28" s="11">
-        <v>2975</v>
+        <v>1452</v>
       </c>
       <c r="AY28" s="11">
-        <v>2447</v>
+        <v>789</v>
       </c>
       <c r="AZ28" s="11">
-        <v>1452</v>
+        <v>1937</v>
       </c>
       <c r="BA28" s="11">
-        <v>1025</v>
+        <v>1780</v>
       </c>
       <c r="BB28" s="11">
-        <v>1701</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3508,94 +3508,94 @@
         <v>0</v>
       </c>
       <c r="Y29" s="13">
-        <v>0</v>
+        <v>3011</v>
       </c>
       <c r="Z29" s="13">
-        <v>0</v>
+        <v>2606</v>
       </c>
       <c r="AA29" s="13">
-        <v>3011</v>
+        <v>3037</v>
       </c>
       <c r="AB29" s="13">
-        <v>2606</v>
+        <v>1918</v>
       </c>
       <c r="AC29" s="13">
-        <v>3037</v>
+        <v>2460</v>
       </c>
       <c r="AD29" s="13">
-        <v>1918</v>
+        <v>2031</v>
       </c>
       <c r="AE29" s="13">
-        <v>2460</v>
+        <v>2214</v>
       </c>
       <c r="AF29" s="13">
-        <v>2031</v>
+        <v>2261</v>
       </c>
       <c r="AG29" s="13">
-        <v>2214</v>
+        <v>1565</v>
       </c>
       <c r="AH29" s="13">
-        <v>2261</v>
+        <v>2249</v>
       </c>
       <c r="AI29" s="13">
-        <v>1565</v>
+        <v>1773</v>
       </c>
       <c r="AJ29" s="13">
-        <v>2249</v>
+        <v>1139</v>
       </c>
       <c r="AK29" s="13">
-        <v>1773</v>
+        <v>1727</v>
       </c>
       <c r="AL29" s="13">
-        <v>1139</v>
+        <v>1196</v>
       </c>
       <c r="AM29" s="13">
-        <v>1727</v>
+        <v>2181</v>
       </c>
       <c r="AN29" s="13">
-        <v>1196</v>
+        <v>840</v>
       </c>
       <c r="AO29" s="13">
-        <v>2181</v>
+        <v>2453</v>
       </c>
       <c r="AP29" s="13">
-        <v>840</v>
+        <v>2322</v>
       </c>
       <c r="AQ29" s="13">
-        <v>2453</v>
+        <v>2227</v>
       </c>
       <c r="AR29" s="13">
-        <v>2322</v>
+        <v>3131</v>
       </c>
       <c r="AS29" s="13">
-        <v>2227</v>
+        <v>2197</v>
       </c>
       <c r="AT29" s="13">
-        <v>3131</v>
+        <v>2509</v>
       </c>
       <c r="AU29" s="13">
-        <v>2197</v>
+        <v>3788</v>
       </c>
       <c r="AV29" s="13">
-        <v>2509</v>
+        <v>2975</v>
       </c>
       <c r="AW29" s="13">
-        <v>3788</v>
+        <v>2447</v>
       </c>
       <c r="AX29" s="13">
-        <v>2975</v>
+        <v>1452</v>
       </c>
       <c r="AY29" s="13">
-        <v>2447</v>
+        <v>789</v>
       </c>
       <c r="AZ29" s="13">
-        <v>1452</v>
+        <v>1937</v>
       </c>
       <c r="BA29" s="13">
-        <v>1025</v>
+        <v>1780</v>
       </c>
       <c r="BB29" s="13">
-        <v>1701</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3721,11 +3721,11 @@
       <c r="X31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z31" s="17" t="s">
-        <v>58</v>
+      <c r="Y31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="17">
+        <v>0</v>
       </c>
       <c r="AA31" s="17">
         <v>0</v>
@@ -3937,11 +3937,11 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>0</v>
       </c>
       <c r="AA33" s="11">
         <v>0</v>
@@ -3964,11 +3964,11 @@
       <c r="AG33" s="11">
         <v>0</v>
       </c>
-      <c r="AH33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="11">
-        <v>0</v>
+      <c r="AH33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ33" s="11" t="s">
         <v>58</v>
@@ -4094,11 +4094,11 @@
       <c r="X34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="13" t="s">
-        <v>58</v>
+      <c r="Y34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>0</v>
       </c>
       <c r="AA34" s="13">
         <v>0</v>
@@ -4252,94 +4252,94 @@
         <v>0</v>
       </c>
       <c r="Y35" s="17">
-        <v>0</v>
+        <v>4065</v>
       </c>
       <c r="Z35" s="17">
-        <v>0</v>
+        <v>4218</v>
       </c>
       <c r="AA35" s="17">
-        <v>4065</v>
+        <v>4308</v>
       </c>
       <c r="AB35" s="17">
-        <v>4218</v>
+        <v>3242</v>
       </c>
       <c r="AC35" s="17">
-        <v>4308</v>
+        <v>3743</v>
       </c>
       <c r="AD35" s="17">
-        <v>3242</v>
+        <v>3598</v>
       </c>
       <c r="AE35" s="17">
-        <v>3743</v>
+        <v>3792</v>
       </c>
       <c r="AF35" s="17">
-        <v>3598</v>
+        <v>3620</v>
       </c>
       <c r="AG35" s="17">
-        <v>3792</v>
+        <v>3128</v>
       </c>
       <c r="AH35" s="17">
-        <v>3620</v>
+        <v>3812</v>
       </c>
       <c r="AI35" s="17">
-        <v>3128</v>
+        <v>3092</v>
       </c>
       <c r="AJ35" s="17">
-        <v>3812</v>
+        <v>2690</v>
       </c>
       <c r="AK35" s="17">
-        <v>3092</v>
+        <v>3208</v>
       </c>
       <c r="AL35" s="17">
-        <v>2690</v>
+        <v>3308</v>
       </c>
       <c r="AM35" s="17">
-        <v>3208</v>
+        <v>3831</v>
       </c>
       <c r="AN35" s="17">
-        <v>3308</v>
+        <v>3200</v>
       </c>
       <c r="AO35" s="17">
-        <v>3831</v>
+        <v>3930</v>
       </c>
       <c r="AP35" s="17">
-        <v>3200</v>
+        <v>4229</v>
       </c>
       <c r="AQ35" s="17">
-        <v>3930</v>
+        <v>3609</v>
       </c>
       <c r="AR35" s="17">
-        <v>4229</v>
+        <v>4629</v>
       </c>
       <c r="AS35" s="17">
-        <v>3609</v>
+        <v>3596</v>
       </c>
       <c r="AT35" s="17">
-        <v>4629</v>
+        <v>3121</v>
       </c>
       <c r="AU35" s="17">
-        <v>3596</v>
+        <v>7006</v>
       </c>
       <c r="AV35" s="17">
-        <v>3121</v>
+        <v>6258</v>
       </c>
       <c r="AW35" s="17">
-        <v>7006</v>
+        <v>4720</v>
       </c>
       <c r="AX35" s="17">
-        <v>6258</v>
+        <v>4761</v>
       </c>
       <c r="AY35" s="17">
-        <v>4720</v>
+        <v>2420</v>
       </c>
       <c r="AZ35" s="17">
-        <v>4761</v>
+        <v>3392</v>
       </c>
       <c r="BA35" s="17">
-        <v>2657</v>
+        <v>3615</v>
       </c>
       <c r="BB35" s="17">
-        <v>3155</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4844,95 +4844,95 @@
       <c r="X42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z42" s="11" t="s">
-        <v>58</v>
+      <c r="Y42" s="11">
+        <v>92811</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>162642</v>
       </c>
       <c r="AA42" s="11">
-        <v>92811</v>
+        <v>133199</v>
       </c>
       <c r="AB42" s="11">
-        <v>162642</v>
+        <v>156785</v>
       </c>
       <c r="AC42" s="11">
-        <v>133199</v>
+        <v>164390</v>
       </c>
       <c r="AD42" s="11">
-        <v>156785</v>
+        <v>242558</v>
       </c>
       <c r="AE42" s="11">
-        <v>164390</v>
+        <v>273821</v>
       </c>
       <c r="AF42" s="11">
-        <v>242558</v>
+        <v>268158</v>
       </c>
       <c r="AG42" s="11">
-        <v>273821</v>
+        <v>322220</v>
       </c>
       <c r="AH42" s="11">
-        <v>268158</v>
+        <v>346940</v>
       </c>
       <c r="AI42" s="11">
-        <v>322220</v>
+        <v>297312</v>
       </c>
       <c r="AJ42" s="11">
-        <v>346940</v>
+        <v>356681</v>
       </c>
       <c r="AK42" s="11">
-        <v>297312</v>
+        <v>350799</v>
       </c>
       <c r="AL42" s="11">
-        <v>356681</v>
+        <v>534487</v>
       </c>
       <c r="AM42" s="11">
-        <v>350799</v>
+        <v>410754</v>
       </c>
       <c r="AN42" s="11">
-        <v>534487</v>
+        <v>643226</v>
       </c>
       <c r="AO42" s="11">
-        <v>410754</v>
+        <v>401647</v>
       </c>
       <c r="AP42" s="11">
-        <v>643226</v>
+        <v>512226</v>
       </c>
       <c r="AQ42" s="11">
-        <v>401647</v>
+        <v>367618</v>
       </c>
       <c r="AR42" s="11">
-        <v>512226</v>
+        <v>424217</v>
       </c>
       <c r="AS42" s="11">
-        <v>367618</v>
+        <v>415271</v>
       </c>
       <c r="AT42" s="11">
-        <v>424217</v>
+        <v>227817</v>
       </c>
       <c r="AU42" s="11">
-        <v>415271</v>
+        <v>1259401</v>
       </c>
       <c r="AV42" s="11">
-        <v>227817</v>
+        <v>1381450</v>
       </c>
       <c r="AW42" s="11">
-        <v>1259401</v>
+        <v>977933</v>
       </c>
       <c r="AX42" s="11">
-        <v>1381450</v>
+        <v>1416643</v>
       </c>
       <c r="AY42" s="11">
-        <v>977933</v>
+        <v>647634</v>
       </c>
       <c r="AZ42" s="11">
-        <v>1416643</v>
+        <v>518457</v>
       </c>
       <c r="BA42" s="11">
-        <v>647634</v>
+        <v>631337</v>
       </c>
       <c r="BB42" s="11">
-        <v>518457</v>
+        <v>546791</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5002,94 +5002,94 @@
         <v>0</v>
       </c>
       <c r="Y43" s="13">
-        <v>0</v>
+        <v>92811</v>
       </c>
       <c r="Z43" s="13">
-        <v>0</v>
+        <v>162642</v>
       </c>
       <c r="AA43" s="13">
-        <v>92811</v>
+        <v>133199</v>
       </c>
       <c r="AB43" s="13">
-        <v>162642</v>
+        <v>156785</v>
       </c>
       <c r="AC43" s="13">
-        <v>133199</v>
+        <v>164390</v>
       </c>
       <c r="AD43" s="13">
-        <v>156785</v>
+        <v>242558</v>
       </c>
       <c r="AE43" s="13">
-        <v>164390</v>
+        <v>273821</v>
       </c>
       <c r="AF43" s="13">
-        <v>242558</v>
+        <v>268158</v>
       </c>
       <c r="AG43" s="13">
-        <v>273821</v>
+        <v>322220</v>
       </c>
       <c r="AH43" s="13">
-        <v>268158</v>
+        <v>346940</v>
       </c>
       <c r="AI43" s="13">
-        <v>322220</v>
+        <v>297312</v>
       </c>
       <c r="AJ43" s="13">
-        <v>346940</v>
+        <v>356681</v>
       </c>
       <c r="AK43" s="13">
-        <v>297312</v>
+        <v>350799</v>
       </c>
       <c r="AL43" s="13">
-        <v>356681</v>
+        <v>534487</v>
       </c>
       <c r="AM43" s="13">
-        <v>350799</v>
+        <v>410754</v>
       </c>
       <c r="AN43" s="13">
-        <v>534487</v>
+        <v>643226</v>
       </c>
       <c r="AO43" s="13">
-        <v>410754</v>
+        <v>401647</v>
       </c>
       <c r="AP43" s="13">
-        <v>643226</v>
+        <v>512226</v>
       </c>
       <c r="AQ43" s="13">
-        <v>401647</v>
+        <v>367618</v>
       </c>
       <c r="AR43" s="13">
-        <v>512226</v>
+        <v>424217</v>
       </c>
       <c r="AS43" s="13">
-        <v>367618</v>
+        <v>415271</v>
       </c>
       <c r="AT43" s="13">
-        <v>424217</v>
+        <v>227817</v>
       </c>
       <c r="AU43" s="13">
-        <v>415271</v>
+        <v>1259401</v>
       </c>
       <c r="AV43" s="13">
-        <v>227817</v>
+        <v>1381450</v>
       </c>
       <c r="AW43" s="13">
-        <v>1259401</v>
+        <v>977933</v>
       </c>
       <c r="AX43" s="13">
-        <v>1381450</v>
+        <v>1416643</v>
       </c>
       <c r="AY43" s="13">
-        <v>977933</v>
+        <v>647634</v>
       </c>
       <c r="AZ43" s="13">
-        <v>1416643</v>
+        <v>518457</v>
       </c>
       <c r="BA43" s="13">
-        <v>647634</v>
+        <v>631337</v>
       </c>
       <c r="BB43" s="13">
-        <v>518457</v>
+        <v>546791</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5217,95 +5217,95 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>219807</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>207116</v>
       </c>
       <c r="AA45" s="11">
-        <v>219807</v>
+        <v>279047</v>
       </c>
       <c r="AB45" s="11">
-        <v>207116</v>
+        <v>222654</v>
       </c>
       <c r="AC45" s="11">
-        <v>279047</v>
+        <v>319555</v>
       </c>
       <c r="AD45" s="11">
-        <v>222654</v>
+        <v>305772</v>
       </c>
       <c r="AE45" s="11">
-        <v>319555</v>
+        <v>358323</v>
       </c>
       <c r="AF45" s="11">
-        <v>305772</v>
+        <v>382774</v>
       </c>
       <c r="AG45" s="11">
-        <v>358323</v>
+        <v>256540</v>
       </c>
       <c r="AH45" s="11">
-        <v>382774</v>
+        <v>518074</v>
       </c>
       <c r="AI45" s="11">
-        <v>256540</v>
+        <v>399319</v>
       </c>
       <c r="AJ45" s="11">
-        <v>518074</v>
+        <v>258663</v>
       </c>
       <c r="AK45" s="11">
-        <v>399319</v>
+        <v>386493</v>
       </c>
       <c r="AL45" s="11">
-        <v>258663</v>
+        <v>298148</v>
       </c>
       <c r="AM45" s="11">
-        <v>386493</v>
+        <v>477298</v>
       </c>
       <c r="AN45" s="11">
-        <v>298148</v>
+        <v>196229</v>
       </c>
       <c r="AO45" s="11">
-        <v>477298</v>
+        <v>600707</v>
       </c>
       <c r="AP45" s="11">
-        <v>196229</v>
+        <v>591838</v>
       </c>
       <c r="AQ45" s="11">
-        <v>600707</v>
+        <v>530701</v>
       </c>
       <c r="AR45" s="11">
-        <v>591838</v>
+        <v>698638</v>
       </c>
       <c r="AS45" s="11">
-        <v>530701</v>
+        <v>520383</v>
       </c>
       <c r="AT45" s="11">
-        <v>698638</v>
+        <v>696262</v>
       </c>
       <c r="AU45" s="11">
-        <v>520383</v>
+        <v>1132867</v>
       </c>
       <c r="AV45" s="11">
-        <v>696262</v>
+        <v>973083</v>
       </c>
       <c r="AW45" s="11">
-        <v>1132867</v>
+        <v>814287</v>
       </c>
       <c r="AX45" s="11">
-        <v>973083</v>
+        <v>480673</v>
       </c>
       <c r="AY45" s="11">
-        <v>814287</v>
+        <v>279129</v>
       </c>
       <c r="AZ45" s="11">
-        <v>480673</v>
+        <v>601204</v>
       </c>
       <c r="BA45" s="11">
-        <v>356595</v>
+        <v>554398</v>
       </c>
       <c r="BB45" s="11">
-        <v>523738</v>
+        <v>883400</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5375,94 +5375,94 @@
         <v>0</v>
       </c>
       <c r="Y46" s="13">
-        <v>0</v>
+        <v>219807</v>
       </c>
       <c r="Z46" s="13">
-        <v>0</v>
+        <v>207116</v>
       </c>
       <c r="AA46" s="13">
-        <v>219807</v>
+        <v>279047</v>
       </c>
       <c r="AB46" s="13">
-        <v>207116</v>
+        <v>222654</v>
       </c>
       <c r="AC46" s="13">
-        <v>279047</v>
+        <v>319555</v>
       </c>
       <c r="AD46" s="13">
-        <v>222654</v>
+        <v>305772</v>
       </c>
       <c r="AE46" s="13">
-        <v>319555</v>
+        <v>358323</v>
       </c>
       <c r="AF46" s="13">
-        <v>305772</v>
+        <v>382774</v>
       </c>
       <c r="AG46" s="13">
-        <v>358323</v>
+        <v>256540</v>
       </c>
       <c r="AH46" s="13">
-        <v>382774</v>
+        <v>518074</v>
       </c>
       <c r="AI46" s="13">
-        <v>256540</v>
+        <v>399319</v>
       </c>
       <c r="AJ46" s="13">
-        <v>518074</v>
+        <v>258663</v>
       </c>
       <c r="AK46" s="13">
-        <v>399319</v>
+        <v>386493</v>
       </c>
       <c r="AL46" s="13">
-        <v>258663</v>
+        <v>298148</v>
       </c>
       <c r="AM46" s="13">
-        <v>386493</v>
+        <v>477298</v>
       </c>
       <c r="AN46" s="13">
-        <v>298148</v>
+        <v>196229</v>
       </c>
       <c r="AO46" s="13">
-        <v>477298</v>
+        <v>600707</v>
       </c>
       <c r="AP46" s="13">
-        <v>196229</v>
+        <v>591838</v>
       </c>
       <c r="AQ46" s="13">
-        <v>600707</v>
+        <v>530701</v>
       </c>
       <c r="AR46" s="13">
-        <v>591838</v>
+        <v>698638</v>
       </c>
       <c r="AS46" s="13">
-        <v>530701</v>
+        <v>520383</v>
       </c>
       <c r="AT46" s="13">
-        <v>698638</v>
+        <v>696262</v>
       </c>
       <c r="AU46" s="13">
-        <v>520383</v>
+        <v>1132867</v>
       </c>
       <c r="AV46" s="13">
-        <v>696262</v>
+        <v>973083</v>
       </c>
       <c r="AW46" s="13">
-        <v>1132867</v>
+        <v>814287</v>
       </c>
       <c r="AX46" s="13">
-        <v>973083</v>
+        <v>480673</v>
       </c>
       <c r="AY46" s="13">
-        <v>814287</v>
+        <v>279129</v>
       </c>
       <c r="AZ46" s="13">
-        <v>480673</v>
+        <v>601204</v>
       </c>
       <c r="BA46" s="13">
-        <v>356595</v>
+        <v>554398</v>
       </c>
       <c r="BB46" s="13">
-        <v>523738</v>
+        <v>883400</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5590,11 +5590,11 @@
       <c r="X48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z48" s="17" t="s">
-        <v>58</v>
+      <c r="Y48" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="17">
+        <v>0</v>
       </c>
       <c r="AA48" s="17">
         <v>0</v>
@@ -5806,11 +5806,11 @@
       <c r="X50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z50" s="11" t="s">
-        <v>58</v>
+      <c r="Y50" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>0</v>
       </c>
       <c r="AA50" s="11">
         <v>0</v>
@@ -5833,20 +5833,20 @@
       <c r="AG50" s="11">
         <v>0</v>
       </c>
-      <c r="AH50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="11">
-        <v>0</v>
+      <c r="AH50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL50" s="11" t="s">
-        <v>58</v>
+      <c r="AK50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="11">
+        <v>0</v>
       </c>
       <c r="AM50" s="11">
         <v>0</v>
@@ -5869,11 +5869,11 @@
       <c r="AS50" s="11">
         <v>0</v>
       </c>
-      <c r="AT50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU50" s="11">
-        <v>0</v>
+      <c r="AT50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV50" s="11" t="s">
         <v>58</v>
@@ -5965,11 +5965,11 @@
       <c r="X51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z51" s="13" t="s">
-        <v>58</v>
+      <c r="Y51" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="13">
+        <v>0</v>
       </c>
       <c r="AA51" s="13">
         <v>0</v>
@@ -6181,11 +6181,11 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>0</v>
       </c>
       <c r="AA53" s="11">
         <v>0</v>
@@ -6339,94 +6339,94 @@
         <v>0</v>
       </c>
       <c r="Y54" s="13">
-        <v>0</v>
+        <v>312618</v>
       </c>
       <c r="Z54" s="13">
-        <v>0</v>
+        <v>369758</v>
       </c>
       <c r="AA54" s="13">
-        <v>312618</v>
+        <v>412246</v>
       </c>
       <c r="AB54" s="13">
-        <v>369758</v>
+        <v>379439</v>
       </c>
       <c r="AC54" s="13">
-        <v>412246</v>
+        <v>483945</v>
       </c>
       <c r="AD54" s="13">
-        <v>379439</v>
+        <v>548330</v>
       </c>
       <c r="AE54" s="13">
-        <v>483945</v>
+        <v>632144</v>
       </c>
       <c r="AF54" s="13">
-        <v>548330</v>
+        <v>650932</v>
       </c>
       <c r="AG54" s="13">
-        <v>632144</v>
+        <v>578760</v>
       </c>
       <c r="AH54" s="13">
-        <v>650932</v>
+        <v>865014</v>
       </c>
       <c r="AI54" s="13">
-        <v>578760</v>
+        <v>696631</v>
       </c>
       <c r="AJ54" s="13">
-        <v>865014</v>
+        <v>615344</v>
       </c>
       <c r="AK54" s="13">
-        <v>696631</v>
+        <v>737292</v>
       </c>
       <c r="AL54" s="13">
-        <v>615344</v>
+        <v>832635</v>
       </c>
       <c r="AM54" s="13">
-        <v>737292</v>
+        <v>888052</v>
       </c>
       <c r="AN54" s="13">
-        <v>832635</v>
+        <v>839455</v>
       </c>
       <c r="AO54" s="13">
-        <v>888052</v>
+        <v>1002354</v>
       </c>
       <c r="AP54" s="13">
-        <v>839455</v>
+        <v>1104064</v>
       </c>
       <c r="AQ54" s="13">
-        <v>1002354</v>
+        <v>898319</v>
       </c>
       <c r="AR54" s="13">
-        <v>1104064</v>
+        <v>1122855</v>
       </c>
       <c r="AS54" s="13">
-        <v>898319</v>
+        <v>935654</v>
       </c>
       <c r="AT54" s="13">
-        <v>1122855</v>
+        <v>924079</v>
       </c>
       <c r="AU54" s="13">
-        <v>935654</v>
+        <v>2392268</v>
       </c>
       <c r="AV54" s="13">
-        <v>924079</v>
+        <v>2354533</v>
       </c>
       <c r="AW54" s="13">
-        <v>2392268</v>
+        <v>1792220</v>
       </c>
       <c r="AX54" s="13">
-        <v>2354533</v>
+        <v>1897316</v>
       </c>
       <c r="AY54" s="13">
-        <v>1792220</v>
+        <v>926763</v>
       </c>
       <c r="AZ54" s="13">
-        <v>1897316</v>
+        <v>1119661</v>
       </c>
       <c r="BA54" s="13">
-        <v>1004229</v>
+        <v>1185735</v>
       </c>
       <c r="BB54" s="13">
-        <v>1042195</v>
+        <v>1430191</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6931,95 +6931,95 @@
       <c r="X61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z61" s="11" t="s">
-        <v>58</v>
+      <c r="Y61" s="11">
+        <v>88055977</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>100894541</v>
       </c>
       <c r="AA61" s="11">
-        <v>88055977</v>
+        <v>104798584</v>
       </c>
       <c r="AB61" s="11">
-        <v>100894541</v>
+        <v>118417674</v>
       </c>
       <c r="AC61" s="11">
-        <v>104798584</v>
+        <v>128129384</v>
       </c>
       <c r="AD61" s="11">
-        <v>118417674</v>
+        <v>154791321</v>
       </c>
       <c r="AE61" s="11">
-        <v>128129384</v>
+        <v>173524081</v>
       </c>
       <c r="AF61" s="11">
-        <v>154791321</v>
+        <v>197320088</v>
       </c>
       <c r="AG61" s="11">
-        <v>173524081</v>
+        <v>206154830</v>
       </c>
       <c r="AH61" s="11">
-        <v>197320088</v>
+        <v>221970569</v>
       </c>
       <c r="AI61" s="11">
-        <v>206154830</v>
+        <v>225407127</v>
       </c>
       <c r="AJ61" s="11">
-        <v>221970569</v>
+        <v>229968407</v>
       </c>
       <c r="AK61" s="11">
-        <v>225407127</v>
+        <v>236866307</v>
       </c>
       <c r="AL61" s="11">
-        <v>229968407</v>
+        <v>253071496</v>
       </c>
       <c r="AM61" s="11">
-        <v>236866307</v>
+        <v>248941818</v>
       </c>
       <c r="AN61" s="11">
-        <v>253071496</v>
+        <v>272553390</v>
       </c>
       <c r="AO61" s="11">
-        <v>248941818</v>
+        <v>271934326</v>
       </c>
       <c r="AP61" s="11">
-        <v>272553390</v>
+        <v>268603041</v>
       </c>
       <c r="AQ61" s="11">
-        <v>271934326</v>
+        <v>266004342</v>
       </c>
       <c r="AR61" s="11">
-        <v>268603041</v>
+        <v>283188919</v>
       </c>
       <c r="AS61" s="11">
-        <v>266004342</v>
+        <v>296834167</v>
       </c>
       <c r="AT61" s="11">
-        <v>283188919</v>
+        <v>372250000</v>
       </c>
       <c r="AU61" s="11">
-        <v>296834167</v>
+        <v>391361405</v>
       </c>
       <c r="AV61" s="11">
-        <v>372250000</v>
+        <v>420788913</v>
       </c>
       <c r="AW61" s="11">
-        <v>391361405</v>
+        <v>430238891</v>
       </c>
       <c r="AX61" s="11">
-        <v>420788913</v>
+        <v>428118163</v>
       </c>
       <c r="AY61" s="11">
-        <v>430238891</v>
+        <v>397077866</v>
       </c>
       <c r="AZ61" s="11">
-        <v>428118163</v>
+        <v>356327835</v>
       </c>
       <c r="BA61" s="11">
-        <v>396834559</v>
+        <v>344052861</v>
       </c>
       <c r="BB61" s="11">
-        <v>356572902</v>
+        <v>314067203</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7147,95 +7147,95 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>73001328</v>
+      </c>
+      <c r="Z63" s="11">
+        <v>79476592</v>
       </c>
       <c r="AA63" s="11">
-        <v>73001328</v>
+        <v>91882450</v>
       </c>
       <c r="AB63" s="11">
-        <v>79476592</v>
+        <v>116086548</v>
       </c>
       <c r="AC63" s="11">
-        <v>91882450</v>
+        <v>129900407</v>
       </c>
       <c r="AD63" s="11">
-        <v>116086548</v>
+        <v>150552437</v>
       </c>
       <c r="AE63" s="11">
-        <v>129900407</v>
+        <v>161844173</v>
       </c>
       <c r="AF63" s="11">
-        <v>150552437</v>
+        <v>169294118</v>
       </c>
       <c r="AG63" s="11">
-        <v>161844173</v>
+        <v>163923323</v>
       </c>
       <c r="AH63" s="11">
-        <v>169294118</v>
+        <v>230357492</v>
       </c>
       <c r="AI63" s="11">
-        <v>163923323</v>
+        <v>225222222</v>
       </c>
       <c r="AJ63" s="11">
-        <v>230357492</v>
+        <v>227096576</v>
       </c>
       <c r="AK63" s="11">
-        <v>225222222</v>
+        <v>223794441</v>
       </c>
       <c r="AL63" s="11">
-        <v>227096576</v>
+        <v>249287625</v>
       </c>
       <c r="AM63" s="11">
-        <v>223794441</v>
+        <v>218843650</v>
       </c>
       <c r="AN63" s="11">
-        <v>249287625</v>
+        <v>233605952</v>
       </c>
       <c r="AO63" s="11">
-        <v>218843650</v>
+        <v>244886669</v>
       </c>
       <c r="AP63" s="11">
-        <v>233605952</v>
+        <v>254882860</v>
       </c>
       <c r="AQ63" s="11">
-        <v>244886669</v>
+        <v>238303098</v>
       </c>
       <c r="AR63" s="11">
-        <v>254882860</v>
+        <v>223135739</v>
       </c>
       <c r="AS63" s="11">
-        <v>238303098</v>
+        <v>236860719</v>
       </c>
       <c r="AT63" s="11">
-        <v>223135739</v>
+        <v>277505779</v>
       </c>
       <c r="AU63" s="11">
-        <v>236860719</v>
+        <v>299067318</v>
       </c>
       <c r="AV63" s="11">
-        <v>277505779</v>
+        <v>327086723</v>
       </c>
       <c r="AW63" s="11">
-        <v>299067318</v>
+        <v>332769514</v>
       </c>
       <c r="AX63" s="11">
-        <v>327086723</v>
+        <v>331042011</v>
       </c>
       <c r="AY63" s="11">
-        <v>332769514</v>
+        <v>353775665</v>
       </c>
       <c r="AZ63" s="11">
-        <v>331042011</v>
+        <v>310378937</v>
       </c>
       <c r="BA63" s="11">
-        <v>347897561</v>
+        <v>311459551</v>
       </c>
       <c r="BB63" s="11">
-        <v>307900059</v>
+        <v>312929508</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/dode/shesadaf/product/monthly_seprated.xlsx
+++ b/database/industries/dode/shesadaf/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shesadaf\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shesadaf\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1364E410-622B-4AA0-8F33-514150C1652F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B89F35-A376-4A0A-833B-7F5E62CCD50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="84">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شصدف-صنعتی دوده فام</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -748,12 +748,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -808,7 +808,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -977,7 +977,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1146,7 +1146,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1477,104 +1477,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>3402</v>
+      </c>
+      <c r="X11" s="11">
+        <v>3539</v>
       </c>
       <c r="Y11" s="11">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="Z11" s="11">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AA11" s="11">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AB11" s="11">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AC11" s="11">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AD11" s="11">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AE11" s="11">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AF11" s="11">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AG11" s="11">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AH11" s="11">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AI11" s="11">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AK11" s="11">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AL11" s="11">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AM11" s="11">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AN11" s="11">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AO11" s="11">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AP11" s="11">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AR11" s="11">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AS11" s="11">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AT11" s="11">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AU11" s="11">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AV11" s="11">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AW11" s="11">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AX11" s="11">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="AY11" s="11">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="AZ11" s="11">
-        <v>4910</v>
+        <v>4625</v>
       </c>
       <c r="BA11" s="11">
-        <v>4861</v>
+        <v>4208</v>
       </c>
       <c r="BB11" s="11">
-        <v>4625</v>
+        <v>3860</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1635,103 +1635,103 @@
         <v>0</v>
       </c>
       <c r="W12" s="13">
-        <v>0</v>
+        <v>3402</v>
       </c>
       <c r="X12" s="13">
-        <v>0</v>
+        <v>3539</v>
       </c>
       <c r="Y12" s="13">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="Z12" s="13">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AA12" s="13">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AB12" s="13">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AC12" s="13">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AD12" s="13">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AE12" s="13">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AF12" s="13">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AG12" s="13">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AH12" s="13">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AI12" s="13">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AJ12" s="13">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AK12" s="13">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AL12" s="13">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AM12" s="13">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AN12" s="13">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AO12" s="13">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AP12" s="13">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AQ12" s="13">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AR12" s="13">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AS12" s="13">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AT12" s="13">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AU12" s="13">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AV12" s="13">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AW12" s="13">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AX12" s="13">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="AY12" s="13">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="AZ12" s="13">
-        <v>4910</v>
+        <v>4625</v>
       </c>
       <c r="BA12" s="13">
-        <v>4861</v>
+        <v>4208</v>
       </c>
       <c r="BB12" s="13">
-        <v>4625</v>
+        <v>3860</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="BA13" s="9"/>
       <c r="BB13" s="9"/>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
@@ -1850,11 +1850,11 @@
       <c r="V14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>58</v>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
       </c>
       <c r="Y14" s="11">
         <v>0</v>
@@ -1880,11 +1880,11 @@
       <c r="AF14" s="11">
         <v>0</v>
       </c>
-      <c r="AG14" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="11">
-        <v>0</v>
+      <c r="AG14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI14" s="11" t="s">
         <v>58</v>
@@ -1904,11 +1904,11 @@
       <c r="AN14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP14" s="11" t="s">
-        <v>58</v>
+      <c r="AO14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="11">
+        <v>0</v>
       </c>
       <c r="AQ14" s="11">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>61</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>62</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="BA16" s="15"/>
       <c r="BB16" s="15"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>63</v>
       </c>
@@ -2221,11 +2221,11 @@
       <c r="V17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>58</v>
+      <c r="W17" s="17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0</v>
       </c>
       <c r="Y17" s="17">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2379,103 +2379,103 @@
         <v>0</v>
       </c>
       <c r="W18" s="13">
-        <v>0</v>
+        <v>3402</v>
       </c>
       <c r="X18" s="13">
-        <v>0</v>
+        <v>3539</v>
       </c>
       <c r="Y18" s="13">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="Z18" s="13">
-        <v>3539</v>
+        <v>3428</v>
       </c>
       <c r="AA18" s="13">
-        <v>3397</v>
+        <v>3722</v>
       </c>
       <c r="AB18" s="13">
-        <v>3428</v>
+        <v>3617</v>
       </c>
       <c r="AC18" s="13">
-        <v>3722</v>
+        <v>3586</v>
       </c>
       <c r="AD18" s="13">
-        <v>3617</v>
+        <v>3763</v>
       </c>
       <c r="AE18" s="13">
-        <v>3586</v>
+        <v>2991</v>
       </c>
       <c r="AF18" s="13">
-        <v>3763</v>
+        <v>3776</v>
       </c>
       <c r="AG18" s="13">
-        <v>2991</v>
+        <v>3304</v>
       </c>
       <c r="AH18" s="13">
-        <v>3776</v>
+        <v>3346</v>
       </c>
       <c r="AI18" s="13">
-        <v>3304</v>
+        <v>2906</v>
       </c>
       <c r="AJ18" s="13">
-        <v>3346</v>
+        <v>3936</v>
       </c>
       <c r="AK18" s="13">
-        <v>2906</v>
+        <v>4558</v>
       </c>
       <c r="AL18" s="13">
-        <v>3936</v>
+        <v>4593</v>
       </c>
       <c r="AM18" s="13">
-        <v>4558</v>
+        <v>4906</v>
       </c>
       <c r="AN18" s="13">
-        <v>4593</v>
+        <v>4576</v>
       </c>
       <c r="AO18" s="13">
-        <v>4906</v>
+        <v>4101</v>
       </c>
       <c r="AP18" s="13">
-        <v>4576</v>
+        <v>4530</v>
       </c>
       <c r="AQ18" s="13">
-        <v>4101</v>
+        <v>4667</v>
       </c>
       <c r="AR18" s="13">
-        <v>4530</v>
+        <v>4865</v>
       </c>
       <c r="AS18" s="13">
-        <v>4667</v>
+        <v>4946</v>
       </c>
       <c r="AT18" s="13">
-        <v>4865</v>
+        <v>4260</v>
       </c>
       <c r="AU18" s="13">
-        <v>4946</v>
+        <v>4831</v>
       </c>
       <c r="AV18" s="13">
-        <v>4260</v>
+        <v>5288</v>
       </c>
       <c r="AW18" s="13">
-        <v>4831</v>
+        <v>5018</v>
       </c>
       <c r="AX18" s="13">
-        <v>5288</v>
+        <v>4910</v>
       </c>
       <c r="AY18" s="13">
-        <v>5018</v>
+        <v>4861</v>
       </c>
       <c r="AZ18" s="13">
-        <v>4910</v>
+        <v>4625</v>
       </c>
       <c r="BA18" s="13">
-        <v>4861</v>
+        <v>4208</v>
       </c>
       <c r="BB18" s="13">
-        <v>4625</v>
+        <v>3860</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2530,7 +2530,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2585,7 +2585,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2640,7 +2640,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>65</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2852,7 +2852,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>66</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
@@ -2971,104 +2971,104 @@
       <c r="V25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>58</v>
+      <c r="W25" s="11">
+        <v>1054</v>
+      </c>
+      <c r="X25" s="11">
+        <v>1612</v>
       </c>
       <c r="Y25" s="11">
-        <v>1054</v>
+        <v>1271</v>
       </c>
       <c r="Z25" s="11">
-        <v>1612</v>
+        <v>1324</v>
       </c>
       <c r="AA25" s="11">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="AB25" s="11">
-        <v>1324</v>
+        <v>1567</v>
       </c>
       <c r="AC25" s="11">
-        <v>1283</v>
+        <v>1578</v>
       </c>
       <c r="AD25" s="11">
-        <v>1567</v>
+        <v>1359</v>
       </c>
       <c r="AE25" s="11">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="AF25" s="11">
-        <v>1359</v>
+        <v>1563</v>
       </c>
       <c r="AG25" s="11">
-        <v>1563</v>
+        <v>1319</v>
       </c>
       <c r="AH25" s="11">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="AI25" s="11">
-        <v>1319</v>
+        <v>1481</v>
       </c>
       <c r="AJ25" s="11">
-        <v>1551</v>
+        <v>2112</v>
       </c>
       <c r="AK25" s="11">
-        <v>1481</v>
+        <v>1650</v>
       </c>
       <c r="AL25" s="11">
-        <v>2112</v>
+        <v>2360</v>
       </c>
       <c r="AM25" s="11">
-        <v>1650</v>
+        <v>1477</v>
       </c>
       <c r="AN25" s="11">
-        <v>2360</v>
+        <v>1907</v>
       </c>
       <c r="AO25" s="11">
-        <v>1477</v>
+        <v>1382</v>
       </c>
       <c r="AP25" s="11">
-        <v>1907</v>
+        <v>1498</v>
       </c>
       <c r="AQ25" s="11">
-        <v>1382</v>
+        <v>1399</v>
       </c>
       <c r="AR25" s="11">
-        <v>1498</v>
+        <v>612</v>
       </c>
       <c r="AS25" s="11">
-        <v>1399</v>
+        <v>3218</v>
       </c>
       <c r="AT25" s="11">
-        <v>612</v>
+        <v>3283</v>
       </c>
       <c r="AU25" s="11">
-        <v>3218</v>
+        <v>2273</v>
       </c>
       <c r="AV25" s="11">
-        <v>3283</v>
+        <v>3309</v>
       </c>
       <c r="AW25" s="11">
-        <v>2273</v>
+        <v>1631</v>
       </c>
       <c r="AX25" s="11">
-        <v>3309</v>
+        <v>1454</v>
       </c>
       <c r="AY25" s="11">
-        <v>1631</v>
+        <v>1835</v>
       </c>
       <c r="AZ25" s="11">
-        <v>1455</v>
+        <v>1741</v>
       </c>
       <c r="BA25" s="11">
-        <v>1835</v>
+        <v>2937</v>
       </c>
       <c r="BB25" s="11">
-        <v>1741</v>
+        <v>989</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>67</v>
       </c>
@@ -3129,103 +3129,103 @@
         <v>0</v>
       </c>
       <c r="W26" s="13">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="X26" s="13">
-        <v>0</v>
+        <v>1612</v>
       </c>
       <c r="Y26" s="13">
-        <v>1054</v>
+        <v>1271</v>
       </c>
       <c r="Z26" s="13">
-        <v>1612</v>
+        <v>1324</v>
       </c>
       <c r="AA26" s="13">
-        <v>1271</v>
+        <v>1283</v>
       </c>
       <c r="AB26" s="13">
-        <v>1324</v>
+        <v>1567</v>
       </c>
       <c r="AC26" s="13">
-        <v>1283</v>
+        <v>1578</v>
       </c>
       <c r="AD26" s="13">
-        <v>1567</v>
+        <v>1359</v>
       </c>
       <c r="AE26" s="13">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="AF26" s="13">
-        <v>1359</v>
+        <v>1563</v>
       </c>
       <c r="AG26" s="13">
-        <v>1563</v>
+        <v>1319</v>
       </c>
       <c r="AH26" s="13">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="AI26" s="13">
-        <v>1319</v>
+        <v>1481</v>
       </c>
       <c r="AJ26" s="13">
-        <v>1551</v>
+        <v>2112</v>
       </c>
       <c r="AK26" s="13">
-        <v>1481</v>
+        <v>1650</v>
       </c>
       <c r="AL26" s="13">
-        <v>2112</v>
+        <v>2360</v>
       </c>
       <c r="AM26" s="13">
-        <v>1650</v>
+        <v>1477</v>
       </c>
       <c r="AN26" s="13">
-        <v>2360</v>
+        <v>1907</v>
       </c>
       <c r="AO26" s="13">
-        <v>1477</v>
+        <v>1382</v>
       </c>
       <c r="AP26" s="13">
-        <v>1907</v>
+        <v>1498</v>
       </c>
       <c r="AQ26" s="13">
-        <v>1382</v>
+        <v>1399</v>
       </c>
       <c r="AR26" s="13">
-        <v>1498</v>
+        <v>612</v>
       </c>
       <c r="AS26" s="13">
-        <v>1399</v>
+        <v>3218</v>
       </c>
       <c r="AT26" s="13">
-        <v>612</v>
+        <v>3283</v>
       </c>
       <c r="AU26" s="13">
-        <v>3218</v>
+        <v>2273</v>
       </c>
       <c r="AV26" s="13">
-        <v>3283</v>
+        <v>3309</v>
       </c>
       <c r="AW26" s="13">
-        <v>2273</v>
+        <v>1631</v>
       </c>
       <c r="AX26" s="13">
-        <v>3309</v>
+        <v>1454</v>
       </c>
       <c r="AY26" s="13">
-        <v>1631</v>
+        <v>1835</v>
       </c>
       <c r="AZ26" s="13">
-        <v>1455</v>
+        <v>1741</v>
       </c>
       <c r="BA26" s="13">
-        <v>1835</v>
+        <v>2937</v>
       </c>
       <c r="BB26" s="13">
-        <v>1741</v>
+        <v>989</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>56</v>
       </c>
@@ -3344,104 +3344,104 @@
       <c r="V28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>58</v>
+      <c r="W28" s="11">
+        <v>3011</v>
+      </c>
+      <c r="X28" s="11">
+        <v>2606</v>
       </c>
       <c r="Y28" s="11">
-        <v>3011</v>
+        <v>3037</v>
       </c>
       <c r="Z28" s="11">
-        <v>2606</v>
+        <v>1918</v>
       </c>
       <c r="AA28" s="11">
-        <v>3037</v>
+        <v>2460</v>
       </c>
       <c r="AB28" s="11">
-        <v>1918</v>
+        <v>2031</v>
       </c>
       <c r="AC28" s="11">
-        <v>2460</v>
+        <v>2214</v>
       </c>
       <c r="AD28" s="11">
-        <v>2031</v>
+        <v>2261</v>
       </c>
       <c r="AE28" s="11">
-        <v>2214</v>
+        <v>1565</v>
       </c>
       <c r="AF28" s="11">
-        <v>2261</v>
+        <v>2249</v>
       </c>
       <c r="AG28" s="11">
-        <v>1565</v>
+        <v>1773</v>
       </c>
       <c r="AH28" s="11">
-        <v>2249</v>
+        <v>1139</v>
       </c>
       <c r="AI28" s="11">
-        <v>1773</v>
+        <v>1727</v>
       </c>
       <c r="AJ28" s="11">
-        <v>1139</v>
+        <v>1196</v>
       </c>
       <c r="AK28" s="11">
-        <v>1727</v>
+        <v>2181</v>
       </c>
       <c r="AL28" s="11">
-        <v>1196</v>
+        <v>840</v>
       </c>
       <c r="AM28" s="11">
-        <v>2181</v>
+        <v>2453</v>
       </c>
       <c r="AN28" s="11">
-        <v>840</v>
+        <v>2322</v>
       </c>
       <c r="AO28" s="11">
-        <v>2453</v>
+        <v>2227</v>
       </c>
       <c r="AP28" s="11">
-        <v>2322</v>
+        <v>3131</v>
       </c>
       <c r="AQ28" s="11">
-        <v>2227</v>
+        <v>2197</v>
       </c>
       <c r="AR28" s="11">
-        <v>3131</v>
+        <v>2509</v>
       </c>
       <c r="AS28" s="11">
-        <v>2197</v>
+        <v>3788</v>
       </c>
       <c r="AT28" s="11">
-        <v>2509</v>
+        <v>2975</v>
       </c>
       <c r="AU28" s="11">
-        <v>3788</v>
+        <v>2447</v>
       </c>
       <c r="AV28" s="11">
-        <v>2975</v>
+        <v>1452</v>
       </c>
       <c r="AW28" s="11">
-        <v>2447</v>
+        <v>789</v>
       </c>
       <c r="AX28" s="11">
-        <v>1452</v>
+        <v>1701</v>
       </c>
       <c r="AY28" s="11">
-        <v>789</v>
+        <v>1780</v>
       </c>
       <c r="AZ28" s="11">
-        <v>1937</v>
+        <v>2823</v>
       </c>
       <c r="BA28" s="11">
-        <v>1780</v>
+        <v>4842</v>
       </c>
       <c r="BB28" s="11">
-        <v>2823</v>
+        <v>5787</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>69</v>
       </c>
@@ -3502,103 +3502,103 @@
         <v>0</v>
       </c>
       <c r="W29" s="13">
-        <v>0</v>
+        <v>3011</v>
       </c>
       <c r="X29" s="13">
-        <v>0</v>
+        <v>2606</v>
       </c>
       <c r="Y29" s="13">
-        <v>3011</v>
+        <v>3037</v>
       </c>
       <c r="Z29" s="13">
-        <v>2606</v>
+        <v>1918</v>
       </c>
       <c r="AA29" s="13">
-        <v>3037</v>
+        <v>2460</v>
       </c>
       <c r="AB29" s="13">
-        <v>1918</v>
+        <v>2031</v>
       </c>
       <c r="AC29" s="13">
-        <v>2460</v>
+        <v>2214</v>
       </c>
       <c r="AD29" s="13">
-        <v>2031</v>
+        <v>2261</v>
       </c>
       <c r="AE29" s="13">
-        <v>2214</v>
+        <v>1565</v>
       </c>
       <c r="AF29" s="13">
-        <v>2261</v>
+        <v>2249</v>
       </c>
       <c r="AG29" s="13">
-        <v>1565</v>
+        <v>1773</v>
       </c>
       <c r="AH29" s="13">
-        <v>2249</v>
+        <v>1139</v>
       </c>
       <c r="AI29" s="13">
-        <v>1773</v>
+        <v>1727</v>
       </c>
       <c r="AJ29" s="13">
-        <v>1139</v>
+        <v>1196</v>
       </c>
       <c r="AK29" s="13">
-        <v>1727</v>
+        <v>2181</v>
       </c>
       <c r="AL29" s="13">
-        <v>1196</v>
+        <v>840</v>
       </c>
       <c r="AM29" s="13">
-        <v>2181</v>
+        <v>2453</v>
       </c>
       <c r="AN29" s="13">
-        <v>840</v>
+        <v>2322</v>
       </c>
       <c r="AO29" s="13">
-        <v>2453</v>
+        <v>2227</v>
       </c>
       <c r="AP29" s="13">
-        <v>2322</v>
+        <v>3131</v>
       </c>
       <c r="AQ29" s="13">
-        <v>2227</v>
+        <v>2197</v>
       </c>
       <c r="AR29" s="13">
-        <v>3131</v>
+        <v>2509</v>
       </c>
       <c r="AS29" s="13">
-        <v>2197</v>
+        <v>3788</v>
       </c>
       <c r="AT29" s="13">
-        <v>2509</v>
+        <v>2975</v>
       </c>
       <c r="AU29" s="13">
-        <v>3788</v>
+        <v>2447</v>
       </c>
       <c r="AV29" s="13">
-        <v>2975</v>
+        <v>1452</v>
       </c>
       <c r="AW29" s="13">
-        <v>2447</v>
+        <v>789</v>
       </c>
       <c r="AX29" s="13">
-        <v>1452</v>
+        <v>1701</v>
       </c>
       <c r="AY29" s="13">
-        <v>789</v>
+        <v>1780</v>
       </c>
       <c r="AZ29" s="13">
-        <v>1937</v>
+        <v>2823</v>
       </c>
       <c r="BA29" s="13">
-        <v>1780</v>
+        <v>4842</v>
       </c>
       <c r="BB29" s="13">
-        <v>2823</v>
+        <v>5787</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>62</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="BA30" s="15"/>
       <c r="BB30" s="15"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>63</v>
       </c>
@@ -3715,11 +3715,11 @@
       <c r="V31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>58</v>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
       </c>
       <c r="Y31" s="17">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>70</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -3931,11 +3931,11 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>0</v>
+      </c>
+      <c r="X33" s="11">
+        <v>0</v>
       </c>
       <c r="Y33" s="11">
         <v>0</v>
@@ -3958,11 +3958,11 @@
       <c r="AE33" s="11">
         <v>0</v>
       </c>
-      <c r="AF33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>0</v>
+      <c r="AF33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH33" s="11" t="s">
         <v>58</v>
@@ -4028,7 +4028,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>71</v>
       </c>
@@ -4088,11 +4088,11 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>0</v>
+      </c>
+      <c r="X34" s="13">
+        <v>0</v>
       </c>
       <c r="Y34" s="13">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>64</v>
       </c>
@@ -4246,103 +4246,103 @@
         <v>0</v>
       </c>
       <c r="W35" s="17">
-        <v>0</v>
+        <v>4065</v>
       </c>
       <c r="X35" s="17">
-        <v>0</v>
+        <v>4218</v>
       </c>
       <c r="Y35" s="17">
-        <v>4065</v>
+        <v>4308</v>
       </c>
       <c r="Z35" s="17">
-        <v>4218</v>
+        <v>3242</v>
       </c>
       <c r="AA35" s="17">
-        <v>4308</v>
+        <v>3743</v>
       </c>
       <c r="AB35" s="17">
-        <v>3242</v>
+        <v>3598</v>
       </c>
       <c r="AC35" s="17">
-        <v>3743</v>
+        <v>3792</v>
       </c>
       <c r="AD35" s="17">
-        <v>3598</v>
+        <v>3620</v>
       </c>
       <c r="AE35" s="17">
-        <v>3792</v>
+        <v>3128</v>
       </c>
       <c r="AF35" s="17">
-        <v>3620</v>
+        <v>3812</v>
       </c>
       <c r="AG35" s="17">
-        <v>3128</v>
+        <v>3092</v>
       </c>
       <c r="AH35" s="17">
-        <v>3812</v>
+        <v>2690</v>
       </c>
       <c r="AI35" s="17">
-        <v>3092</v>
+        <v>3208</v>
       </c>
       <c r="AJ35" s="17">
-        <v>2690</v>
+        <v>3308</v>
       </c>
       <c r="AK35" s="17">
-        <v>3208</v>
+        <v>3831</v>
       </c>
       <c r="AL35" s="17">
-        <v>3308</v>
+        <v>3200</v>
       </c>
       <c r="AM35" s="17">
-        <v>3831</v>
+        <v>3930</v>
       </c>
       <c r="AN35" s="17">
-        <v>3200</v>
+        <v>4229</v>
       </c>
       <c r="AO35" s="17">
-        <v>3930</v>
+        <v>3609</v>
       </c>
       <c r="AP35" s="17">
-        <v>4229</v>
+        <v>4629</v>
       </c>
       <c r="AQ35" s="17">
-        <v>3609</v>
+        <v>3596</v>
       </c>
       <c r="AR35" s="17">
-        <v>4629</v>
+        <v>3121</v>
       </c>
       <c r="AS35" s="17">
-        <v>3596</v>
+        <v>7006</v>
       </c>
       <c r="AT35" s="17">
-        <v>3121</v>
+        <v>6258</v>
       </c>
       <c r="AU35" s="17">
-        <v>7006</v>
+        <v>4720</v>
       </c>
       <c r="AV35" s="17">
-        <v>6258</v>
+        <v>4761</v>
       </c>
       <c r="AW35" s="17">
-        <v>4720</v>
+        <v>2420</v>
       </c>
       <c r="AX35" s="17">
-        <v>4761</v>
+        <v>3155</v>
       </c>
       <c r="AY35" s="17">
-        <v>2420</v>
+        <v>3615</v>
       </c>
       <c r="AZ35" s="17">
-        <v>3392</v>
+        <v>4564</v>
       </c>
       <c r="BA35" s="17">
-        <v>3615</v>
+        <v>7779</v>
       </c>
       <c r="BB35" s="17">
-        <v>4564</v>
+        <v>6776</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4397,7 +4397,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4452,7 +4452,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4507,7 +4507,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>72</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4719,7 +4719,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>73</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>56</v>
       </c>
@@ -4838,104 +4838,104 @@
       <c r="V42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>58</v>
+      <c r="W42" s="11">
+        <v>92811</v>
+      </c>
+      <c r="X42" s="11">
+        <v>162642</v>
       </c>
       <c r="Y42" s="11">
-        <v>92811</v>
+        <v>133199</v>
       </c>
       <c r="Z42" s="11">
-        <v>162642</v>
+        <v>156785</v>
       </c>
       <c r="AA42" s="11">
-        <v>133199</v>
+        <v>164390</v>
       </c>
       <c r="AB42" s="11">
-        <v>156785</v>
+        <v>242558</v>
       </c>
       <c r="AC42" s="11">
-        <v>164390</v>
+        <v>273821</v>
       </c>
       <c r="AD42" s="11">
-        <v>242558</v>
+        <v>268158</v>
       </c>
       <c r="AE42" s="11">
-        <v>273821</v>
+        <v>322220</v>
       </c>
       <c r="AF42" s="11">
-        <v>268158</v>
+        <v>346940</v>
       </c>
       <c r="AG42" s="11">
-        <v>322220</v>
+        <v>297312</v>
       </c>
       <c r="AH42" s="11">
-        <v>346940</v>
+        <v>356681</v>
       </c>
       <c r="AI42" s="11">
-        <v>297312</v>
+        <v>350799</v>
       </c>
       <c r="AJ42" s="11">
-        <v>356681</v>
+        <v>534487</v>
       </c>
       <c r="AK42" s="11">
-        <v>350799</v>
+        <v>410754</v>
       </c>
       <c r="AL42" s="11">
-        <v>534487</v>
+        <v>643226</v>
       </c>
       <c r="AM42" s="11">
-        <v>410754</v>
+        <v>401647</v>
       </c>
       <c r="AN42" s="11">
-        <v>643226</v>
+        <v>512226</v>
       </c>
       <c r="AO42" s="11">
-        <v>401647</v>
+        <v>367618</v>
       </c>
       <c r="AP42" s="11">
-        <v>512226</v>
+        <v>424217</v>
       </c>
       <c r="AQ42" s="11">
-        <v>367618</v>
+        <v>415271</v>
       </c>
       <c r="AR42" s="11">
-        <v>424217</v>
+        <v>227817</v>
       </c>
       <c r="AS42" s="11">
-        <v>415271</v>
+        <v>1259401</v>
       </c>
       <c r="AT42" s="11">
-        <v>227817</v>
+        <v>1381450</v>
       </c>
       <c r="AU42" s="11">
-        <v>1259401</v>
+        <v>977933</v>
       </c>
       <c r="AV42" s="11">
-        <v>1381450</v>
+        <v>1416643</v>
       </c>
       <c r="AW42" s="11">
-        <v>977933</v>
+        <v>647634</v>
       </c>
       <c r="AX42" s="11">
-        <v>1416643</v>
+        <v>518457</v>
       </c>
       <c r="AY42" s="11">
-        <v>647634</v>
+        <v>631337</v>
       </c>
       <c r="AZ42" s="11">
-        <v>518457</v>
+        <v>546791</v>
       </c>
       <c r="BA42" s="11">
-        <v>631337</v>
+        <v>858850</v>
       </c>
       <c r="BB42" s="11">
-        <v>546791</v>
+        <v>326166</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>67</v>
       </c>
@@ -4996,103 +4996,103 @@
         <v>0</v>
       </c>
       <c r="W43" s="13">
-        <v>0</v>
+        <v>92811</v>
       </c>
       <c r="X43" s="13">
-        <v>0</v>
+        <v>162642</v>
       </c>
       <c r="Y43" s="13">
-        <v>92811</v>
+        <v>133199</v>
       </c>
       <c r="Z43" s="13">
-        <v>162642</v>
+        <v>156785</v>
       </c>
       <c r="AA43" s="13">
-        <v>133199</v>
+        <v>164390</v>
       </c>
       <c r="AB43" s="13">
-        <v>156785</v>
+        <v>242558</v>
       </c>
       <c r="AC43" s="13">
-        <v>164390</v>
+        <v>273821</v>
       </c>
       <c r="AD43" s="13">
-        <v>242558</v>
+        <v>268158</v>
       </c>
       <c r="AE43" s="13">
-        <v>273821</v>
+        <v>322220</v>
       </c>
       <c r="AF43" s="13">
-        <v>268158</v>
+        <v>346940</v>
       </c>
       <c r="AG43" s="13">
-        <v>322220</v>
+        <v>297312</v>
       </c>
       <c r="AH43" s="13">
-        <v>346940</v>
+        <v>356681</v>
       </c>
       <c r="AI43" s="13">
-        <v>297312</v>
+        <v>350799</v>
       </c>
       <c r="AJ43" s="13">
-        <v>356681</v>
+        <v>534487</v>
       </c>
       <c r="AK43" s="13">
-        <v>350799</v>
+        <v>410754</v>
       </c>
       <c r="AL43" s="13">
-        <v>534487</v>
+        <v>643226</v>
       </c>
       <c r="AM43" s="13">
-        <v>410754</v>
+        <v>401647</v>
       </c>
       <c r="AN43" s="13">
-        <v>643226</v>
+        <v>512226</v>
       </c>
       <c r="AO43" s="13">
-        <v>401647</v>
+        <v>367618</v>
       </c>
       <c r="AP43" s="13">
-        <v>512226</v>
+        <v>424217</v>
       </c>
       <c r="AQ43" s="13">
-        <v>367618</v>
+        <v>415271</v>
       </c>
       <c r="AR43" s="13">
-        <v>424217</v>
+        <v>227817</v>
       </c>
       <c r="AS43" s="13">
-        <v>415271</v>
+        <v>1259401</v>
       </c>
       <c r="AT43" s="13">
-        <v>227817</v>
+        <v>1381450</v>
       </c>
       <c r="AU43" s="13">
-        <v>1259401</v>
+        <v>977933</v>
       </c>
       <c r="AV43" s="13">
-        <v>1381450</v>
+        <v>1416643</v>
       </c>
       <c r="AW43" s="13">
-        <v>977933</v>
+        <v>647634</v>
       </c>
       <c r="AX43" s="13">
-        <v>1416643</v>
+        <v>518457</v>
       </c>
       <c r="AY43" s="13">
-        <v>647634</v>
+        <v>631337</v>
       </c>
       <c r="AZ43" s="13">
-        <v>518457</v>
+        <v>546791</v>
       </c>
       <c r="BA43" s="13">
-        <v>631337</v>
+        <v>858850</v>
       </c>
       <c r="BB43" s="13">
-        <v>546791</v>
+        <v>326166</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
@@ -5211,104 +5211,104 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>219807</v>
+      </c>
+      <c r="X45" s="11">
+        <v>207116</v>
       </c>
       <c r="Y45" s="11">
-        <v>219807</v>
+        <v>279047</v>
       </c>
       <c r="Z45" s="11">
-        <v>207116</v>
+        <v>222654</v>
       </c>
       <c r="AA45" s="11">
-        <v>279047</v>
+        <v>319555</v>
       </c>
       <c r="AB45" s="11">
-        <v>222654</v>
+        <v>305772</v>
       </c>
       <c r="AC45" s="11">
-        <v>319555</v>
+        <v>358323</v>
       </c>
       <c r="AD45" s="11">
-        <v>305772</v>
+        <v>382774</v>
       </c>
       <c r="AE45" s="11">
-        <v>358323</v>
+        <v>256540</v>
       </c>
       <c r="AF45" s="11">
-        <v>382774</v>
+        <v>518074</v>
       </c>
       <c r="AG45" s="11">
-        <v>256540</v>
+        <v>399319</v>
       </c>
       <c r="AH45" s="11">
-        <v>518074</v>
+        <v>258663</v>
       </c>
       <c r="AI45" s="11">
-        <v>399319</v>
+        <v>386493</v>
       </c>
       <c r="AJ45" s="11">
-        <v>258663</v>
+        <v>298148</v>
       </c>
       <c r="AK45" s="11">
-        <v>386493</v>
+        <v>477298</v>
       </c>
       <c r="AL45" s="11">
-        <v>298148</v>
+        <v>196229</v>
       </c>
       <c r="AM45" s="11">
-        <v>477298</v>
+        <v>600707</v>
       </c>
       <c r="AN45" s="11">
-        <v>196229</v>
+        <v>591838</v>
       </c>
       <c r="AO45" s="11">
-        <v>600707</v>
+        <v>530701</v>
       </c>
       <c r="AP45" s="11">
-        <v>591838</v>
+        <v>698638</v>
       </c>
       <c r="AQ45" s="11">
-        <v>530701</v>
+        <v>520383</v>
       </c>
       <c r="AR45" s="11">
-        <v>698638</v>
+        <v>696262</v>
       </c>
       <c r="AS45" s="11">
-        <v>520383</v>
+        <v>1132867</v>
       </c>
       <c r="AT45" s="11">
-        <v>696262</v>
+        <v>973083</v>
       </c>
       <c r="AU45" s="11">
-        <v>1132867</v>
+        <v>814287</v>
       </c>
       <c r="AV45" s="11">
-        <v>973083</v>
+        <v>480673</v>
       </c>
       <c r="AW45" s="11">
-        <v>814287</v>
+        <v>279129</v>
       </c>
       <c r="AX45" s="11">
-        <v>480673</v>
+        <v>523738</v>
       </c>
       <c r="AY45" s="11">
-        <v>279129</v>
+        <v>554398</v>
       </c>
       <c r="AZ45" s="11">
-        <v>601204</v>
+        <v>883400</v>
       </c>
       <c r="BA45" s="11">
-        <v>554398</v>
+        <v>1437508</v>
       </c>
       <c r="BB45" s="11">
-        <v>883400</v>
+        <v>1821736</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>69</v>
       </c>
@@ -5369,103 +5369,103 @@
         <v>0</v>
       </c>
       <c r="W46" s="13">
-        <v>0</v>
+        <v>219807</v>
       </c>
       <c r="X46" s="13">
-        <v>0</v>
+        <v>207116</v>
       </c>
       <c r="Y46" s="13">
-        <v>219807</v>
+        <v>279047</v>
       </c>
       <c r="Z46" s="13">
-        <v>207116</v>
+        <v>222654</v>
       </c>
       <c r="AA46" s="13">
-        <v>279047</v>
+        <v>319555</v>
       </c>
       <c r="AB46" s="13">
-        <v>222654</v>
+        <v>305772</v>
       </c>
       <c r="AC46" s="13">
-        <v>319555</v>
+        <v>358323</v>
       </c>
       <c r="AD46" s="13">
-        <v>305772</v>
+        <v>382774</v>
       </c>
       <c r="AE46" s="13">
-        <v>358323</v>
+        <v>256540</v>
       </c>
       <c r="AF46" s="13">
-        <v>382774</v>
+        <v>518074</v>
       </c>
       <c r="AG46" s="13">
-        <v>256540</v>
+        <v>399319</v>
       </c>
       <c r="AH46" s="13">
-        <v>518074</v>
+        <v>258663</v>
       </c>
       <c r="AI46" s="13">
-        <v>399319</v>
+        <v>386493</v>
       </c>
       <c r="AJ46" s="13">
-        <v>258663</v>
+        <v>298148</v>
       </c>
       <c r="AK46" s="13">
-        <v>386493</v>
+        <v>477298</v>
       </c>
       <c r="AL46" s="13">
-        <v>298148</v>
+        <v>196229</v>
       </c>
       <c r="AM46" s="13">
-        <v>477298</v>
+        <v>600707</v>
       </c>
       <c r="AN46" s="13">
-        <v>196229</v>
+        <v>591838</v>
       </c>
       <c r="AO46" s="13">
-        <v>600707</v>
+        <v>530701</v>
       </c>
       <c r="AP46" s="13">
-        <v>591838</v>
+        <v>698638</v>
       </c>
       <c r="AQ46" s="13">
-        <v>530701</v>
+        <v>520383</v>
       </c>
       <c r="AR46" s="13">
-        <v>698638</v>
+        <v>696262</v>
       </c>
       <c r="AS46" s="13">
-        <v>520383</v>
+        <v>1132867</v>
       </c>
       <c r="AT46" s="13">
-        <v>696262</v>
+        <v>973083</v>
       </c>
       <c r="AU46" s="13">
-        <v>1132867</v>
+        <v>814287</v>
       </c>
       <c r="AV46" s="13">
-        <v>973083</v>
+        <v>480673</v>
       </c>
       <c r="AW46" s="13">
-        <v>814287</v>
+        <v>279129</v>
       </c>
       <c r="AX46" s="13">
-        <v>480673</v>
+        <v>523738</v>
       </c>
       <c r="AY46" s="13">
-        <v>279129</v>
+        <v>554398</v>
       </c>
       <c r="AZ46" s="13">
-        <v>601204</v>
+        <v>883400</v>
       </c>
       <c r="BA46" s="13">
-        <v>554398</v>
+        <v>1437508</v>
       </c>
       <c r="BB46" s="13">
-        <v>883400</v>
+        <v>1821736</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>76</v>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="BA47" s="15"/>
       <c r="BB47" s="15"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>63</v>
       </c>
@@ -5584,11 +5584,11 @@
       <c r="V48" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="17" t="s">
-        <v>58</v>
+      <c r="W48" s="17">
+        <v>0</v>
+      </c>
+      <c r="X48" s="17">
+        <v>0</v>
       </c>
       <c r="Y48" s="17">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>77</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -5800,11 +5800,11 @@
       <c r="V50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>58</v>
+      <c r="W50" s="11">
+        <v>0</v>
+      </c>
+      <c r="X50" s="11">
+        <v>0</v>
       </c>
       <c r="Y50" s="11">
         <v>0</v>
@@ -5827,20 +5827,20 @@
       <c r="AE50" s="11">
         <v>0</v>
       </c>
-      <c r="AF50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="11">
-        <v>0</v>
+      <c r="AF50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ50" s="11" t="s">
-        <v>58</v>
+      <c r="AI50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="11">
+        <v>0</v>
       </c>
       <c r="AK50" s="11">
         <v>0</v>
@@ -5863,11 +5863,11 @@
       <c r="AQ50" s="11">
         <v>0</v>
       </c>
-      <c r="AR50" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS50" s="11">
-        <v>0</v>
+      <c r="AR50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT50" s="11" t="s">
         <v>58</v>
@@ -5897,7 +5897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>71</v>
       </c>
@@ -5959,11 +5959,11 @@
       <c r="V51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>58</v>
+      <c r="W51" s="13">
+        <v>0</v>
+      </c>
+      <c r="X51" s="13">
+        <v>0</v>
       </c>
       <c r="Y51" s="13">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>78</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>79</v>
       </c>
@@ -6175,11 +6175,11 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
       </c>
       <c r="Y53" s="11">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>64</v>
       </c>
@@ -6333,103 +6333,103 @@
         <v>0</v>
       </c>
       <c r="W54" s="13">
-        <v>0</v>
+        <v>312618</v>
       </c>
       <c r="X54" s="13">
-        <v>0</v>
+        <v>369758</v>
       </c>
       <c r="Y54" s="13">
-        <v>312618</v>
+        <v>412246</v>
       </c>
       <c r="Z54" s="13">
-        <v>369758</v>
+        <v>379439</v>
       </c>
       <c r="AA54" s="13">
-        <v>412246</v>
+        <v>483945</v>
       </c>
       <c r="AB54" s="13">
-        <v>379439</v>
+        <v>548330</v>
       </c>
       <c r="AC54" s="13">
-        <v>483945</v>
+        <v>632144</v>
       </c>
       <c r="AD54" s="13">
-        <v>548330</v>
+        <v>650932</v>
       </c>
       <c r="AE54" s="13">
-        <v>632144</v>
+        <v>578760</v>
       </c>
       <c r="AF54" s="13">
-        <v>650932</v>
+        <v>865014</v>
       </c>
       <c r="AG54" s="13">
-        <v>578760</v>
+        <v>696631</v>
       </c>
       <c r="AH54" s="13">
-        <v>865014</v>
+        <v>615344</v>
       </c>
       <c r="AI54" s="13">
-        <v>696631</v>
+        <v>737292</v>
       </c>
       <c r="AJ54" s="13">
-        <v>615344</v>
+        <v>832635</v>
       </c>
       <c r="AK54" s="13">
-        <v>737292</v>
+        <v>888052</v>
       </c>
       <c r="AL54" s="13">
-        <v>832635</v>
+        <v>839455</v>
       </c>
       <c r="AM54" s="13">
-        <v>888052</v>
+        <v>1002354</v>
       </c>
       <c r="AN54" s="13">
-        <v>839455</v>
+        <v>1104064</v>
       </c>
       <c r="AO54" s="13">
-        <v>1002354</v>
+        <v>898319</v>
       </c>
       <c r="AP54" s="13">
-        <v>1104064</v>
+        <v>1122855</v>
       </c>
       <c r="AQ54" s="13">
-        <v>898319</v>
+        <v>935654</v>
       </c>
       <c r="AR54" s="13">
-        <v>1122855</v>
+        <v>924079</v>
       </c>
       <c r="AS54" s="13">
-        <v>935654</v>
+        <v>2392268</v>
       </c>
       <c r="AT54" s="13">
-        <v>924079</v>
+        <v>2354533</v>
       </c>
       <c r="AU54" s="13">
-        <v>2392268</v>
+        <v>1792220</v>
       </c>
       <c r="AV54" s="13">
-        <v>2354533</v>
+        <v>1897316</v>
       </c>
       <c r="AW54" s="13">
-        <v>1792220</v>
+        <v>926763</v>
       </c>
       <c r="AX54" s="13">
-        <v>1897316</v>
+        <v>1042195</v>
       </c>
       <c r="AY54" s="13">
-        <v>926763</v>
+        <v>1185735</v>
       </c>
       <c r="AZ54" s="13">
-        <v>1119661</v>
+        <v>1430191</v>
       </c>
       <c r="BA54" s="13">
-        <v>1185735</v>
+        <v>2296358</v>
       </c>
       <c r="BB54" s="13">
-        <v>1430191</v>
+        <v>2147902</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6484,7 +6484,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6539,7 +6539,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6594,7 +6594,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>80</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6806,7 +6806,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>81</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -6925,104 +6925,104 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>88055977</v>
+      </c>
+      <c r="X61" s="11">
+        <v>100894541</v>
       </c>
       <c r="Y61" s="11">
-        <v>88055977</v>
+        <v>104798584</v>
       </c>
       <c r="Z61" s="11">
-        <v>100894541</v>
+        <v>118417674</v>
       </c>
       <c r="AA61" s="11">
-        <v>104798584</v>
+        <v>128129384</v>
       </c>
       <c r="AB61" s="11">
-        <v>118417674</v>
+        <v>154791321</v>
       </c>
       <c r="AC61" s="11">
-        <v>128129384</v>
+        <v>173524081</v>
       </c>
       <c r="AD61" s="11">
-        <v>154791321</v>
+        <v>197320088</v>
       </c>
       <c r="AE61" s="11">
-        <v>173524081</v>
+        <v>206154830</v>
       </c>
       <c r="AF61" s="11">
-        <v>197320088</v>
+        <v>221970569</v>
       </c>
       <c r="AG61" s="11">
-        <v>206154830</v>
+        <v>225407127</v>
       </c>
       <c r="AH61" s="11">
-        <v>221970569</v>
+        <v>229968407</v>
       </c>
       <c r="AI61" s="11">
-        <v>225407127</v>
+        <v>236866307</v>
       </c>
       <c r="AJ61" s="11">
-        <v>229968407</v>
+        <v>253071496</v>
       </c>
       <c r="AK61" s="11">
-        <v>236866307</v>
+        <v>248941818</v>
       </c>
       <c r="AL61" s="11">
-        <v>253071496</v>
+        <v>272553390</v>
       </c>
       <c r="AM61" s="11">
-        <v>248941818</v>
+        <v>271934326</v>
       </c>
       <c r="AN61" s="11">
-        <v>272553390</v>
+        <v>268603041</v>
       </c>
       <c r="AO61" s="11">
-        <v>271934326</v>
+        <v>266004342</v>
       </c>
       <c r="AP61" s="11">
-        <v>268603041</v>
+        <v>283188919</v>
       </c>
       <c r="AQ61" s="11">
-        <v>266004342</v>
+        <v>296834167</v>
       </c>
       <c r="AR61" s="11">
-        <v>283188919</v>
+        <v>372250000</v>
       </c>
       <c r="AS61" s="11">
-        <v>296834167</v>
+        <v>391361405</v>
       </c>
       <c r="AT61" s="11">
-        <v>372250000</v>
+        <v>420788913</v>
       </c>
       <c r="AU61" s="11">
-        <v>391361405</v>
+        <v>430238891</v>
       </c>
       <c r="AV61" s="11">
-        <v>420788913</v>
+        <v>428118163</v>
       </c>
       <c r="AW61" s="11">
-        <v>430238891</v>
+        <v>397077866</v>
       </c>
       <c r="AX61" s="11">
-        <v>428118163</v>
+        <v>356572902</v>
       </c>
       <c r="AY61" s="11">
-        <v>397077866</v>
+        <v>344052861</v>
       </c>
       <c r="AZ61" s="11">
-        <v>356327835</v>
+        <v>314067203</v>
       </c>
       <c r="BA61" s="11">
-        <v>344052861</v>
+        <v>292424242</v>
       </c>
       <c r="BB61" s="11">
-        <v>314067203</v>
+        <v>329793731</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>83</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
@@ -7141,101 +7141,101 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>73001328</v>
+      </c>
+      <c r="X63" s="11">
+        <v>79476592</v>
       </c>
       <c r="Y63" s="11">
-        <v>73001328</v>
+        <v>91882450</v>
       </c>
       <c r="Z63" s="11">
-        <v>79476592</v>
+        <v>116086548</v>
       </c>
       <c r="AA63" s="11">
-        <v>91882450</v>
+        <v>129900407</v>
       </c>
       <c r="AB63" s="11">
-        <v>116086548</v>
+        <v>150552437</v>
       </c>
       <c r="AC63" s="11">
-        <v>129900407</v>
+        <v>161844173</v>
       </c>
       <c r="AD63" s="11">
-        <v>150552437</v>
+        <v>169294118</v>
       </c>
       <c r="AE63" s="11">
-        <v>161844173</v>
+        <v>163923323</v>
       </c>
       <c r="AF63" s="11">
-        <v>169294118</v>
+        <v>230357492</v>
       </c>
       <c r="AG63" s="11">
-        <v>163923323</v>
+        <v>225222222</v>
       </c>
       <c r="AH63" s="11">
-        <v>230357492</v>
+        <v>227096576</v>
       </c>
       <c r="AI63" s="11">
-        <v>225222222</v>
+        <v>223794441</v>
       </c>
       <c r="AJ63" s="11">
-        <v>227096576</v>
+        <v>249287625</v>
       </c>
       <c r="AK63" s="11">
-        <v>223794441</v>
+        <v>218843650</v>
       </c>
       <c r="AL63" s="11">
-        <v>249287625</v>
+        <v>233605952</v>
       </c>
       <c r="AM63" s="11">
-        <v>218843650</v>
+        <v>244886669</v>
       </c>
       <c r="AN63" s="11">
-        <v>233605952</v>
+        <v>254882860</v>
       </c>
       <c r="AO63" s="11">
-        <v>244886669</v>
+        <v>238303098</v>
       </c>
       <c r="AP63" s="11">
-        <v>254882860</v>
+        <v>223135739</v>
       </c>
       <c r="AQ63" s="11">
-        <v>238303098</v>
+        <v>236860719</v>
       </c>
       <c r="AR63" s="11">
-        <v>223135739</v>
+        <v>277505779</v>
       </c>
       <c r="AS63" s="11">
-        <v>236860719</v>
+        <v>299067318</v>
       </c>
       <c r="AT63" s="11">
-        <v>277505779</v>
+        <v>327086723</v>
       </c>
       <c r="AU63" s="11">
-        <v>299067318</v>
+        <v>332769514</v>
       </c>
       <c r="AV63" s="11">
-        <v>327086723</v>
+        <v>331042011</v>
       </c>
       <c r="AW63" s="11">
-        <v>332769514</v>
+        <v>353775665</v>
       </c>
       <c r="AX63" s="11">
-        <v>331042011</v>
+        <v>307900059</v>
       </c>
       <c r="AY63" s="11">
-        <v>353775665</v>
+        <v>311459551</v>
       </c>
       <c r="AZ63" s="11">
-        <v>310378937</v>
+        <v>312929508</v>
       </c>
       <c r="BA63" s="11">
-        <v>311459551</v>
+        <v>296883106</v>
       </c>
       <c r="BB63" s="11">
-        <v>312929508</v>
+        <v>314797996</v>
       </c>
     </row>
   </sheetData>
